--- a/Data_Process/Data_inputs/pump_diagram_aux_engine.xlsx
+++ b/Data_Process/Data_inputs/pump_diagram_aux_engine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>6L46</t>
+  </si>
+  <si>
+    <t>l/s</t>
+  </si>
+  <si>
+    <t>m3/h</t>
   </si>
 </sst>
 </file>
@@ -250,64 +256,64 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$24</c:f>
+              <c:f>Sheet1!$F$9:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.403</c:v>
+                  <c:v>1.4508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.811</c:v>
+                  <c:v>6.5196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.511</c:v>
+                  <c:v>9.0396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.099</c:v>
+                  <c:v>14.7564</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.387</c:v>
+                  <c:v>30.1932</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.482</c:v>
+                  <c:v>37.7352</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.619</c:v>
+                  <c:v>45.4284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.097</c:v>
+                  <c:v>54.3492</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.895</c:v>
+                  <c:v>60.822</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.719</c:v>
+                  <c:v>70.98840000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.769</c:v>
+                  <c:v>81.9684</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.925</c:v>
+                  <c:v>89.73</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.768</c:v>
+                  <c:v>96.3648</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.527</c:v>
+                  <c:v>102.6972</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.129</c:v>
+                  <c:v>108.4644</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.675</c:v>
+                  <c:v>114.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$24</c:f>
+              <c:f>Sheet1!$G$9:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2469,15 +2475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:F29"/>
+  <dimension ref="B7:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -2493,13 +2499,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>11.265000000000001</v>
       </c>
@@ -2510,10 +2519,14 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="F9">
+        <f>E9*3.6</f>
+        <v>1.4508000000000001</v>
+      </c>
+      <c r="G9">
         <v>35.293999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>21.975999999999999</v>
       </c>
@@ -2524,10 +2537,14 @@
         <v>1.8109999999999999</v>
       </c>
       <c r="F10">
+        <f t="shared" ref="F10:F23" si="0">E10*3.6</f>
+        <v>6.5195999999999996</v>
+      </c>
+      <c r="G10">
         <v>34.798999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>32.685000000000002</v>
       </c>
@@ -2538,10 +2555,14 @@
         <v>2.5110000000000001</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>9.0396000000000001</v>
+      </c>
+      <c r="G11">
         <v>34.655999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>41.594999999999999</v>
       </c>
@@ -2552,10 +2573,14 @@
         <v>4.0990000000000002</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
+        <v>14.756400000000001</v>
+      </c>
+      <c r="G12">
         <v>34.088999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>52.152999999999999</v>
       </c>
@@ -2566,10 +2591,14 @@
         <v>8.3870000000000005</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>30.193200000000001</v>
+      </c>
+      <c r="G13">
         <v>32.472999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>61.746000000000002</v>
       </c>
@@ -2580,10 +2609,14 @@
         <v>10.481999999999999</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>37.735199999999999</v>
+      </c>
+      <c r="G14">
         <v>31.202000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>72.427999999999997</v>
       </c>
@@ -2594,10 +2627,14 @@
         <v>12.619</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
+        <v>45.428400000000003</v>
+      </c>
+      <c r="G15">
         <v>29.87</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>81.212000000000003</v>
       </c>
@@ -2608,10 +2645,14 @@
         <v>15.097</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>54.349199999999996</v>
+      </c>
+      <c r="G16">
         <v>28.187000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>92.046000000000006</v>
       </c>
@@ -2622,10 +2663,14 @@
         <v>16.895</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
+        <v>60.822000000000003</v>
+      </c>
+      <c r="G17">
         <v>27.218</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>102.048</v>
       </c>
@@ -2636,10 +2681,14 @@
         <v>19.719000000000001</v>
       </c>
       <c r="F18">
+        <f t="shared" si="0"/>
+        <v>70.988400000000013</v>
+      </c>
+      <c r="G18">
         <v>25.587</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>112.288</v>
       </c>
@@ -2650,10 +2699,14 @@
         <v>22.768999999999998</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
+        <v>81.968400000000003</v>
+      </c>
+      <c r="G19">
         <v>23.329000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>121.926</v>
       </c>
@@ -2664,10 +2717,14 @@
         <v>24.925000000000001</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
+        <v>89.73</v>
+      </c>
+      <c r="G20">
         <v>20.446999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>132.48500000000001</v>
       </c>
@@ -2678,10 +2735,14 @@
         <v>26.768000000000001</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>96.364800000000002</v>
+      </c>
+      <c r="G21">
         <v>17.882000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>142.626</v>
       </c>
@@ -2692,10 +2753,14 @@
         <v>28.527000000000001</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
+        <v>102.69720000000001</v>
+      </c>
+      <c r="G22">
         <v>14.971</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>153.76499999999999</v>
       </c>
@@ -2706,10 +2771,14 @@
         <v>30.129000000000001</v>
       </c>
       <c r="F23">
+        <f t="shared" si="0"/>
+        <v>108.46440000000001</v>
+      </c>
+      <c r="G23">
         <v>12.381</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>164.458</v>
       </c>
@@ -2720,10 +2789,14 @@
         <v>31.675000000000001</v>
       </c>
       <c r="F24">
+        <f>E24*3.6</f>
+        <v>114.03</v>
+      </c>
+      <c r="G24">
         <v>9.6389999999999993</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>174.10599999999999</v>
       </c>
@@ -2731,7 +2804,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>181.876</v>
       </c>
@@ -2739,7 +2812,7 @@
         <v>22.298999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>191.661</v>
       </c>
@@ -2747,7 +2820,7 @@
         <v>21.202999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>199.345</v>
       </c>
@@ -2755,7 +2828,7 @@
         <v>20.076000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>207.565</v>
       </c>

--- a/Data_Process/Data_inputs/pump_diagram_aux_engine.xlsx
+++ b/Data_Process/Data_inputs/pump_diagram_aux_engine.xlsx
@@ -27,31 +27,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>6L32</t>
-  </si>
-  <si>
-    <t>6L46</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>l/s</t>
   </si>
   <si>
     <t>m3/h</t>
   </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>ME 6L46 @ 500rpm</t>
+  </si>
+  <si>
+    <t>AE 6L32 @ 750rpm</t>
+  </si>
+  <si>
+    <t>rpm2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,13 +59,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,8 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +204,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AE 6L32 @ 750rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="31750" cap="rnd">
               <a:noFill/>
@@ -256,7 +291,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$24</c:f>
+              <c:f>Sheet1!$H$9:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -313,7 +348,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$9:$G$24</c:f>
+              <c:f>Sheet1!$I$9:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -364,6 +399,160 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>9.639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$9:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.9672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.026400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.1288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.1568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.2856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.2328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.32560000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.64560000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64.2432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68.4648</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.3096</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$9:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>15.68622222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.46622222222222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.40266666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.15066666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.43244444444444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.86755555555555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.27555555555556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.52755555555555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.09688888888889</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.36844444444444</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.087555555555555</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.947555555555556</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.653777777777777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.502666666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,11 +818,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$8</c:f>
+              <c:f>Sheet1!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>y</c:v>
+                  <c:v>ME 6L46 @ 500rpm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -851,6 +1040,190 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>18.938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>9.012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.5808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.7224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.39680000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.9424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.9696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.63680000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.63839999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.8304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.5408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>114.1008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123.012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.5664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>139.2848</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145.5008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>153.3288</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159.476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>166.052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>18.6112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.62656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.63104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.6336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.5312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.4352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.33344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.19968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.00256000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.81184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.65504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.3248</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.83008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.42304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.90016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.33824</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.784</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.27136</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.56992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.84864</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.12032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,16 +2524,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2181,16 +2554,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2475,365 +2848,687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:G29"/>
+  <dimension ref="B6:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>400</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>11.265000000000001</v>
       </c>
       <c r="C9">
         <v>29.08</v>
       </c>
+      <c r="D9">
+        <f>B9*$C$6/500</f>
+        <v>9.0120000000000005</v>
+      </c>
       <c r="E9">
+        <f>C9*($C$6/500)^2</f>
+        <v>18.611200000000004</v>
+      </c>
+      <c r="G9">
         <v>0.40300000000000002</v>
       </c>
-      <c r="F9">
-        <f>E9*3.6</f>
+      <c r="H9">
+        <f>G9*3.6</f>
         <v>1.4508000000000001</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>35.293999999999997</v>
       </c>
+      <c r="J9">
+        <f>H9*$H$6/750</f>
+        <v>0.96720000000000017</v>
+      </c>
+      <c r="K9">
+        <f>I9*($H$6/750)^2</f>
+        <v>15.68622222222222</v>
+      </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>21.975999999999999</v>
       </c>
       <c r="C10">
         <v>29.103999999999999</v>
       </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D29" si="0">B10*$C$6/500</f>
+        <v>17.5808</v>
+      </c>
       <c r="E10">
+        <f t="shared" ref="E10:E29" si="1">C10*($C$6/500)^2</f>
+        <v>18.626560000000001</v>
+      </c>
+      <c r="G10">
         <v>1.8109999999999999</v>
       </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F23" si="0">E10*3.6</f>
+      <c r="H10">
+        <f t="shared" ref="H10:H23" si="2">G10*3.6</f>
         <v>6.5195999999999996</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>34.798999999999999</v>
       </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J24" si="3">H10*$H$6/750</f>
+        <v>4.3464</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K24" si="4">I10*($H$6/750)^2</f>
+        <v>15.466222222222221</v>
+      </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>32.685000000000002</v>
       </c>
       <c r="C11">
         <v>29.111000000000001</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>26.148</v>
+      </c>
       <c r="E11">
+        <f t="shared" si="1"/>
+        <v>18.631040000000002</v>
+      </c>
+      <c r="G11">
         <v>2.5110000000000001</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
+      <c r="H11">
+        <f t="shared" si="2"/>
         <v>9.0396000000000001</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>34.655999999999999</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>6.0264000000000006</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>15.402666666666665</v>
+      </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>41.594999999999999</v>
       </c>
       <c r="C12">
         <v>29.114999999999998</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>33.276000000000003</v>
+      </c>
       <c r="E12">
+        <f t="shared" si="1"/>
+        <v>18.633600000000001</v>
+      </c>
+      <c r="G12">
         <v>4.0990000000000002</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
+      <c r="H12">
+        <f t="shared" si="2"/>
         <v>14.756400000000001</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>34.088999999999999</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>9.8376000000000001</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>15.150666666666666</v>
+      </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>52.152999999999999</v>
       </c>
       <c r="C13">
         <v>28.954999999999998</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>41.7224</v>
+      </c>
       <c r="E13">
+        <f t="shared" si="1"/>
+        <v>18.531200000000002</v>
+      </c>
+      <c r="G13">
         <v>8.3870000000000005</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
+      <c r="H13">
+        <f t="shared" si="2"/>
         <v>30.193200000000001</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>32.472999999999999</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>20.128800000000002</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>14.432444444444442</v>
+      </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>61.746000000000002</v>
       </c>
       <c r="C14">
         <v>28.805</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>49.396800000000006</v>
+      </c>
       <c r="E14">
+        <f t="shared" si="1"/>
+        <v>18.435200000000002</v>
+      </c>
+      <c r="G14">
         <v>10.481999999999999</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
+      <c r="H14">
+        <f t="shared" si="2"/>
         <v>37.735199999999999</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>31.202000000000002</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>25.156799999999997</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>13.867555555555555</v>
+      </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>72.427999999999997</v>
       </c>
       <c r="C15">
         <v>28.646000000000001</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>57.942399999999992</v>
+      </c>
       <c r="E15">
+        <f t="shared" si="1"/>
+        <v>18.333440000000003</v>
+      </c>
+      <c r="G15">
         <v>12.619</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
+      <c r="H15">
+        <f t="shared" si="2"/>
         <v>45.428400000000003</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>29.87</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>30.285600000000002</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>13.275555555555556</v>
+      </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>81.212000000000003</v>
       </c>
       <c r="C16">
         <v>28.437000000000001</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>64.9696</v>
+      </c>
       <c r="E16">
+        <f t="shared" si="1"/>
+        <v>18.199680000000004</v>
+      </c>
+      <c r="G16">
         <v>15.097</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
+      <c r="H16">
+        <f t="shared" si="2"/>
         <v>54.349199999999996</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>28.187000000000001</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>36.232799999999997</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>12.527555555555555</v>
+      </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>92.046000000000006</v>
       </c>
       <c r="C17">
         <v>28.129000000000001</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>73.636800000000008</v>
+      </c>
       <c r="E17">
+        <f t="shared" si="1"/>
+        <v>18.002560000000006</v>
+      </c>
+      <c r="G17">
         <v>16.895</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
+      <c r="H17">
+        <f t="shared" si="2"/>
         <v>60.822000000000003</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>27.218</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>40.548000000000002</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>12.096888888888888</v>
+      </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>102.048</v>
       </c>
       <c r="C18">
         <v>27.831</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>81.63839999999999</v>
+      </c>
       <c r="E18">
+        <f t="shared" si="1"/>
+        <v>17.811840000000004</v>
+      </c>
+      <c r="G18">
         <v>19.719000000000001</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
+      <c r="H18">
+        <f t="shared" si="2"/>
         <v>70.988400000000013</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>25.587</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>47.325600000000009</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>11.372</v>
+      </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>112.288</v>
       </c>
       <c r="C19">
         <v>27.585999999999999</v>
       </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>89.830399999999997</v>
+      </c>
       <c r="E19">
+        <f t="shared" si="1"/>
+        <v>17.655040000000003</v>
+      </c>
+      <c r="G19">
         <v>22.768999999999998</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
+      <c r="H19">
+        <f t="shared" si="2"/>
         <v>81.968400000000003</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>23.329000000000001</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>54.645600000000009</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>10.368444444444444</v>
+      </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>121.926</v>
       </c>
       <c r="C20">
         <v>27.07</v>
       </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>97.540800000000004</v>
+      </c>
       <c r="E20">
+        <f t="shared" si="1"/>
+        <v>17.324800000000003</v>
+      </c>
+      <c r="G20">
         <v>24.925000000000001</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
+      <c r="H20">
+        <f t="shared" si="2"/>
         <v>89.73</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>20.446999999999999</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>59.82</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>9.0875555555555554</v>
+      </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>132.48500000000001</v>
       </c>
       <c r="C21">
         <v>26.297000000000001</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>105.98800000000001</v>
+      </c>
       <c r="E21">
+        <f t="shared" si="1"/>
+        <v>16.830080000000002</v>
+      </c>
+      <c r="G21">
         <v>26.768000000000001</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
+      <c r="H21">
+        <f t="shared" si="2"/>
         <v>96.364800000000002</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>17.882000000000001</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>64.243200000000002</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>7.9475555555555557</v>
+      </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>142.626</v>
       </c>
       <c r="C22">
         <v>25.661000000000001</v>
       </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>114.10080000000001</v>
+      </c>
       <c r="E22">
+        <f t="shared" si="1"/>
+        <v>16.423040000000004</v>
+      </c>
+      <c r="G22">
         <v>28.527000000000001</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
+      <c r="H22">
+        <f t="shared" si="2"/>
         <v>102.69720000000001</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>14.971</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>68.464800000000011</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>6.6537777777777771</v>
+      </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>153.76499999999999</v>
       </c>
       <c r="C23">
         <v>24.844000000000001</v>
       </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>123.01199999999999</v>
+      </c>
       <c r="E23">
+        <f t="shared" si="1"/>
+        <v>15.900160000000003</v>
+      </c>
+      <c r="G23">
         <v>30.129000000000001</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
+      <c r="H23">
+        <f t="shared" si="2"/>
         <v>108.46440000000001</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>12.381</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>72.309600000000003</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>5.5026666666666664</v>
+      </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>164.458</v>
       </c>
       <c r="C24">
         <v>23.966000000000001</v>
       </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>131.56639999999999</v>
+      </c>
       <c r="E24">
+        <f t="shared" si="1"/>
+        <v>15.338240000000004</v>
+      </c>
+      <c r="G24">
         <v>31.675000000000001</v>
       </c>
-      <c r="F24">
-        <f>E24*3.6</f>
+      <c r="H24">
+        <f>G24*3.6</f>
         <v>114.03</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>9.6389999999999993</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>76.02</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>4.2839999999999998</v>
+      </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>174.10599999999999</v>
       </c>
       <c r="C25">
         <v>23.1</v>
       </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>139.28479999999999</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>14.784000000000004</v>
+      </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>181.876</v>
       </c>
       <c r="C26">
         <v>22.298999999999999</v>
       </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>145.50080000000003</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>14.271360000000003</v>
+      </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>191.661</v>
       </c>
       <c r="C27">
         <v>21.202999999999999</v>
       </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>153.3288</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>13.569920000000002</v>
+      </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>199.345</v>
       </c>
       <c r="C28">
         <v>20.076000000000001</v>
       </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>159.476</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>12.848640000000003</v>
+      </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>207.565</v>
       </c>
       <c r="C29">
         <v>18.937999999999999</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>166.05199999999999</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>12.120320000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Process/Data_inputs/pump_diagram_aux_engine.xlsx
+++ b/Data_Process/Data_inputs/pump_diagram_aux_engine.xlsx
@@ -414,7 +414,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -450,52 +450,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.9672</c:v>
+                  <c:v>1.35408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3464</c:v>
+                  <c:v>6.084959999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.026400000000001</c:v>
+                  <c:v>8.436960000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8376</c:v>
+                  <c:v>13.77264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.1288</c:v>
+                  <c:v>28.18032</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.1568</c:v>
+                  <c:v>35.21952</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.2856</c:v>
+                  <c:v>42.39984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.2328</c:v>
+                  <c:v>50.72592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.548</c:v>
+                  <c:v>56.7672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.32560000000001</c:v>
+                  <c:v>66.25584000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.64560000000001</c:v>
+                  <c:v>76.50384000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.82</c:v>
+                  <c:v>83.748</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.2432</c:v>
+                  <c:v>89.94048</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.4648</c:v>
+                  <c:v>95.85072000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.3096</c:v>
+                  <c:v>101.23344</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.02</c:v>
+                  <c:v>106.428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,52 +507,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>15.68622222222222</c:v>
+                  <c:v>30.74499555555555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.46622222222222</c:v>
+                  <c:v>30.31379555555556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.40266666666666</c:v>
+                  <c:v>30.18922666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.15066666666667</c:v>
+                  <c:v>29.69530666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.43244444444444</c:v>
+                  <c:v>28.28759111111111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.86755555555555</c:v>
+                  <c:v>27.18040888888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.27555555555556</c:v>
+                  <c:v>26.02008888888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.52755555555555</c:v>
+                  <c:v>24.5540088888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.09688888888889</c:v>
+                  <c:v>23.70990222222222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.372</c:v>
+                  <c:v>22.28912</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.36844444444444</c:v>
+                  <c:v>20.32215111111111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.087555555555555</c:v>
+                  <c:v>17.8116088888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.947555555555556</c:v>
+                  <c:v>15.57720888888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.653777777777777</c:v>
+                  <c:v>13.04140444444445</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.502666666666666</c:v>
+                  <c:v>10.78522666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.284</c:v>
+                  <c:v>8.39664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,7 +1055,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1091,67 +1091,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9.012</c:v>
+                  <c:v>6.759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.5808</c:v>
+                  <c:v>13.1856</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.148</c:v>
+                  <c:v>19.611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.276</c:v>
+                  <c:v>24.957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.7224</c:v>
+                  <c:v>31.2918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.39680000000001</c:v>
+                  <c:v>37.0476</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.9424</c:v>
+                  <c:v>43.4568</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.9696</c:v>
+                  <c:v>48.7272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.63680000000001</c:v>
+                  <c:v>55.2276</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.63839999999999</c:v>
+                  <c:v>61.2288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.8304</c:v>
+                  <c:v>67.3728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.5408</c:v>
+                  <c:v>73.15560000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.988</c:v>
+                  <c:v>79.491</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>114.1008</c:v>
+                  <c:v>85.57560000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>123.012</c:v>
+                  <c:v>92.25899999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.5664</c:v>
+                  <c:v>98.6748</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>139.2848</c:v>
+                  <c:v>104.4636</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>145.5008</c:v>
+                  <c:v>109.1256</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>153.3288</c:v>
+                  <c:v>114.9966</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>159.476</c:v>
+                  <c:v>119.607</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>166.052</c:v>
+                  <c:v>124.539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,67 +1163,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>18.6112</c:v>
+                  <c:v>10.4688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.62656</c:v>
+                  <c:v>10.47744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.63104</c:v>
+                  <c:v>10.47996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.6336</c:v>
+                  <c:v>10.4814</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.5312</c:v>
+                  <c:v>10.4238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.4352</c:v>
+                  <c:v>10.3698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.33344</c:v>
+                  <c:v>10.31256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.19968</c:v>
+                  <c:v>10.23732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.00256000000001</c:v>
+                  <c:v>10.12644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.81184</c:v>
+                  <c:v>10.01916</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.65504</c:v>
+                  <c:v>9.930959999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.3248</c:v>
+                  <c:v>9.7452</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.83008</c:v>
+                  <c:v>9.46692</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.42304</c:v>
+                  <c:v>9.23796</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.90016</c:v>
+                  <c:v>8.94384</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.33824</c:v>
+                  <c:v>8.62776</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.784</c:v>
+                  <c:v>8.316</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.27136</c:v>
+                  <c:v>8.02764</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.56992</c:v>
+                  <c:v>7.63308</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.84864</c:v>
+                  <c:v>7.22736</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.12032</c:v>
+                  <c:v>6.817679999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2851,7 +2851,7 @@
   <dimension ref="B6:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2861,13 +2861,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -2916,11 +2916,11 @@
       </c>
       <c r="D9">
         <f>B9*$C$6/500</f>
-        <v>9.0120000000000005</v>
+        <v>6.7590000000000003</v>
       </c>
       <c r="E9">
         <f>C9*($C$6/500)^2</f>
-        <v>18.611200000000004</v>
+        <v>10.4688</v>
       </c>
       <c r="G9">
         <v>0.40300000000000002</v>
@@ -2934,11 +2934,11 @@
       </c>
       <c r="J9">
         <f>H9*$H$6/750</f>
-        <v>0.96720000000000017</v>
+        <v>1.3540800000000002</v>
       </c>
       <c r="K9">
         <f>I9*($H$6/750)^2</f>
-        <v>15.68622222222222</v>
+        <v>30.744995555555555</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -2950,11 +2950,11 @@
       </c>
       <c r="D10">
         <f t="shared" ref="D10:D29" si="0">B10*$C$6/500</f>
-        <v>17.5808</v>
+        <v>13.185599999999999</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:E29" si="1">C10*($C$6/500)^2</f>
-        <v>18.626560000000001</v>
+        <v>10.47744</v>
       </c>
       <c r="G10">
         <v>1.8109999999999999</v>
@@ -2968,11 +2968,11 @@
       </c>
       <c r="J10">
         <f t="shared" ref="J10:J24" si="3">H10*$H$6/750</f>
-        <v>4.3464</v>
+        <v>6.0849599999999988</v>
       </c>
       <c r="K10">
         <f t="shared" ref="K10:K24" si="4">I10*($H$6/750)^2</f>
-        <v>15.466222222222221</v>
+        <v>30.313795555555558</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -2984,11 +2984,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>26.148</v>
+        <v>19.611000000000001</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>18.631040000000002</v>
+        <v>10.47996</v>
       </c>
       <c r="G11">
         <v>2.5110000000000001</v>
@@ -3002,11 +3002,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>6.0264000000000006</v>
+        <v>8.4369600000000009</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>15.402666666666665</v>
+        <v>30.189226666666666</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -3018,11 +3018,11 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>33.276000000000003</v>
+        <v>24.957000000000001</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>18.633600000000001</v>
+        <v>10.481399999999999</v>
       </c>
       <c r="G12">
         <v>4.0990000000000002</v>
@@ -3036,11 +3036,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>9.8376000000000001</v>
+        <v>13.772640000000003</v>
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>15.150666666666666</v>
+        <v>29.695306666666667</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -3052,11 +3052,11 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>41.7224</v>
+        <v>31.291799999999999</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>18.531200000000002</v>
+        <v>10.423799999999998</v>
       </c>
       <c r="G13">
         <v>8.3870000000000005</v>
@@ -3070,11 +3070,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>20.128800000000002</v>
+        <v>28.180320000000002</v>
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
-        <v>14.432444444444442</v>
+        <v>28.287591111111112</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
@@ -3086,11 +3086,11 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>49.396800000000006</v>
+        <v>37.047599999999996</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>18.435200000000002</v>
+        <v>10.3698</v>
       </c>
       <c r="G14">
         <v>10.481999999999999</v>
@@ -3104,11 +3104,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>25.156799999999997</v>
+        <v>35.219519999999996</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>13.867555555555555</v>
+        <v>27.180408888888891</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
@@ -3120,11 +3120,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>57.942399999999992</v>
+        <v>43.456799999999994</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>18.333440000000003</v>
+        <v>10.31256</v>
       </c>
       <c r="G15">
         <v>12.619</v>
@@ -3138,11 +3138,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>30.285600000000002</v>
+        <v>42.399840000000005</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>13.275555555555556</v>
+        <v>26.020088888888893</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
@@ -3154,11 +3154,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>64.9696</v>
+        <v>48.727200000000003</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>18.199680000000004</v>
+        <v>10.23732</v>
       </c>
       <c r="G16">
         <v>15.097</v>
@@ -3172,11 +3172,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>36.232799999999997</v>
+        <v>50.725919999999995</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>12.527555555555555</v>
+        <v>24.554008888888891</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -3188,11 +3188,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>73.636800000000008</v>
+        <v>55.227600000000002</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>18.002560000000006</v>
+        <v>10.126440000000001</v>
       </c>
       <c r="G17">
         <v>16.895</v>
@@ -3206,11 +3206,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>40.548000000000002</v>
+        <v>56.767200000000003</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>12.096888888888888</v>
+        <v>23.709902222222222</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>81.63839999999999</v>
+        <v>61.2288</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>17.811840000000004</v>
+        <v>10.019159999999999</v>
       </c>
       <c r="G18">
         <v>19.719000000000001</v>
@@ -3240,11 +3240,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>47.325600000000009</v>
+        <v>66.25584000000002</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>11.372</v>
+        <v>22.28912</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -3256,11 +3256,11 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>89.830399999999997</v>
+        <v>67.372799999999998</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>17.655040000000003</v>
+        <v>9.9309599999999989</v>
       </c>
       <c r="G19">
         <v>22.768999999999998</v>
@@ -3274,11 +3274,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>54.645600000000009</v>
+        <v>76.503840000000011</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>10.368444444444444</v>
+        <v>20.322151111111111</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -3290,11 +3290,11 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>97.540800000000004</v>
+        <v>73.155600000000007</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>17.324800000000003</v>
+        <v>9.7452000000000005</v>
       </c>
       <c r="G20">
         <v>24.925000000000001</v>
@@ -3308,11 +3308,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>59.82</v>
+        <v>83.748000000000005</v>
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>9.0875555555555554</v>
+        <v>17.811608888888891</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -3324,11 +3324,11 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>105.98800000000001</v>
+        <v>79.491000000000014</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>16.830080000000002</v>
+        <v>9.46692</v>
       </c>
       <c r="G21">
         <v>26.768000000000001</v>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>64.243200000000002</v>
+        <v>89.940479999999994</v>
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>7.9475555555555557</v>
+        <v>15.577208888888892</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -3358,11 +3358,11 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>114.10080000000001</v>
+        <v>85.575600000000009</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>16.423040000000004</v>
+        <v>9.2379599999999993</v>
       </c>
       <c r="G22">
         <v>28.527000000000001</v>
@@ -3376,11 +3376,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>68.464800000000011</v>
+        <v>95.85072000000001</v>
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>6.6537777777777771</v>
+        <v>13.041404444444446</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -3392,11 +3392,11 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>123.01199999999999</v>
+        <v>92.258999999999986</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>15.900160000000003</v>
+        <v>8.9438399999999998</v>
       </c>
       <c r="G23">
         <v>30.129000000000001</v>
@@ -3410,11 +3410,11 @@
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>72.309600000000003</v>
+        <v>101.23344</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>5.5026666666666664</v>
+        <v>10.785226666666668</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -3426,11 +3426,11 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>131.56639999999999</v>
+        <v>98.674800000000005</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>15.338240000000004</v>
+        <v>8.6277600000000003</v>
       </c>
       <c r="G24">
         <v>31.675000000000001</v>
@@ -3444,11 +3444,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>76.02</v>
+        <v>106.428</v>
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>4.2839999999999998</v>
+        <v>8.3966399999999997</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -3460,11 +3460,11 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>139.28479999999999</v>
+        <v>104.46359999999999</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>14.784000000000004</v>
+        <v>8.3160000000000007</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -3476,11 +3476,11 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>145.50080000000003</v>
+        <v>109.12560000000001</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>14.271360000000003</v>
+        <v>8.0276399999999999</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
@@ -3492,11 +3492,11 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>153.3288</v>
+        <v>114.9966</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>13.569920000000002</v>
+        <v>7.6330799999999996</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -3508,11 +3508,11 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>159.476</v>
+        <v>119.607</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>12.848640000000003</v>
+        <v>7.22736</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -3524,11 +3524,11 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>166.05199999999999</v>
+        <v>124.539</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>12.120320000000001</v>
+        <v>6.8176799999999993</v>
       </c>
     </row>
   </sheetData>
